--- a/data/2023-24/version0/espana_laliga-hypermotion_23-24.xlsx
+++ b/data/2023-24/version0/espana_laliga-hypermotion_23-24.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,22 +486,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03.09.2023 14:00</t>
+          <t>16.09.2023 14:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mirandés</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -513,22 +513,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03.09.2023 11:30</t>
+          <t>16.09.2023 11:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Alcorcón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -540,22 +540,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03.09.2023 11:30</t>
+          <t>16.09.2023 11:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Real Zaragoza</t>
+          <t>Real Valladolid</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,49 +567,49 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03.09.2023 09:15</t>
+          <t>16.09.2023 09:15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Leganés</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03.09.2023 07:00</t>
+          <t>15.09.2023 14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Real Zaragoza</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Racing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,44 +621,44 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02.09.2023 14:00</t>
+          <t>11.09.2023 14:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Racing</t>
+          <t>Alcorcón</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02.09.2023 14:00</t>
+          <t>10.09.2023 14:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Real Valladolid</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,24 +668,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02.09.2023 11:30</t>
+          <t>10.09.2023 11:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Real Oviedo</t>
+          <t>Real Zaragoza</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -695,56 +695,56 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>02.09.2023 09:15</t>
+          <t>10.09.2023 11:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Real Sporting</t>
+          <t>Mirandés</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01.09.2023 14:30</t>
+          <t>10.09.2023 09:15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Racing</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -756,39 +756,39 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01.09.2023 12:30</t>
+          <t>10.09.2023 09:15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alcorcón</t>
+          <t>Racing de Ferrol</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Racing de Ferrol</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>28.08.2023 14:30</t>
+          <t>09.09.2023 14:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Racing</t>
+          <t>Leganés</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -810,17 +810,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>28.08.2023 12:00</t>
+          <t>09.09.2023 14:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -830,29 +830,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>27.08.2023 14:30</t>
+          <t>09.09.2023 11:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Leganés</t>
+          <t>Real Oviedo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Real Sporting</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -864,22 +864,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>27.08.2023 12:30</t>
+          <t>09.09.2023 09:15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -891,12 +891,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>27.08.2023 12:30</t>
+          <t>08.09.2023 14:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mirandés</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -906,294 +906,254 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>27.08.2023 10:00</t>
+          <t>03.09.2023 14:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Racing de Ferrol</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Real Sporting</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>26.08.2023 14:30</t>
+          <t>03.09.2023 11:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>26.08.2023 14:30</t>
+          <t>03.09.2023 11:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Real Zaragoza</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Alcorcón</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26.08.2023 12:00</t>
+          <t>03.09.2023 09:15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Real Zaragoza</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>26.08.2023 10:00</t>
+          <t>03.09.2023 07:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Real Oviedo</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>25.08.2023 14:30</t>
+          <t>02.09.2023 14:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21.08.2023 14:30</t>
+          <t>02.09.2023 14:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tenerife</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>21.08.2023 12:00</t>
+          <t>02.09.2023 11:30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Eldense</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20.08.2023 15:00</t>
+          <t>02.09.2023 09:15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Real Sporting</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20.08.2023 12:30</t>
+          <t>01.09.2023 14:30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Real Sporting</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mirandés</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20.08.2023 10:00</t>
+          <t>01.09.2023 12:30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Real Oviedo</t>
+          <t>Alcorcón</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1201,215 +1161,183 @@
           <t>Racing de Ferrol</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>19.08.2023 15:00</t>
+          <t>28.08.2023 14:30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alcorcón</t>
+          <t>Racing</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Leganés</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>19.08.2023 12:30</t>
+          <t>28.08.2023 12:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>19.08.2023 12:00</t>
+          <t>27.08.2023 14:30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Leganés</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Racing</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>19.08.2023 10:00</t>
+          <t>27.08.2023 12:30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Elche</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>18.08.2023 14:30</t>
+          <t>27.08.2023 12:30</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Real Zaragoza</t>
+          <t>Mirandés</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>18.08.2023 12:00</t>
+          <t>27.08.2023 10:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Racing de Ferrol</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cartagena</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Real Sporting</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14.08.2023 14:30</t>
+          <t>26.08.2023 14:30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Real Oviedo</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14.08.2023 12:00</t>
+          <t>26.08.2023 14:30</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mirandés</t>
+          <t>Real Valladolid</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1417,75 +1345,63 @@
           <t>Alcorcón</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>13.08.2023 15:00</t>
+          <t>26.08.2023 12:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Leganés</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Andorra</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>13.08.2023 12:30</t>
+          <t>26.08.2023 10:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>13.08.2023 12:30</t>
+          <t>25.08.2023 14:30</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1495,180 +1411,520 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Eldense</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>13.08.2023 10:00</t>
+          <t>21.08.2023 14:30</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>12.08.2023 15:00</t>
+          <t>21.08.2023 12:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Racing de Ferrol</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>12.08.2023 14:00</t>
+          <t>20.08.2023 15:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Real Zaragoza</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>12.08.2023 12:00</t>
+          <t>20.08.2023 12:30</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Racing</t>
+          <t>Real Sporting</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>11.08.2023 14:30</t>
+          <t>20.08.2023 10:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Real Oviedo</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Real Sporting</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Racing de Ferrol</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>19.08.2023 15:00</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Alcorcón</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>19.08.2023 12:30</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>19.08.2023 12:00</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>19.08.2023 10:00</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>18.08.2023 14:30</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>18.08.2023 12:00</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>14.08.2023 14:30</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>14.08.2023 12:00</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Alcorcón</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>13.08.2023 15:00</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>13.08.2023 12:30</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>13.08.2023 12:30</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>13.08.2023 10:00</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>12.08.2023 15:00</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Racing de Ferrol</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>12.08.2023 14:00</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>12.08.2023 12:00</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>11.08.2023 14:30</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Real Sporting</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>11.08.2023 12:00</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Amorebieta</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Levante</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
